--- a/Data/TownRectangles.xlsx
+++ b/Data/TownRectangles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cardinalnewmanac-my.sharepoint.com/personal/t0078915_cardinalnewman_ac_uk/Documents/Computer Science/NEA/Game1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{3FDE97B2-A335-4DCF-9984-4E3563CE4361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74B1193C-01EF-49A9-B1DC-022020A01273}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="8_{3FDE97B2-A335-4DCF-9984-4E3563CE4361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D0AEE6B-1F3E-4F87-A411-46965E123C4A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="9" xr2:uid="{F9B4CAA5-DB4A-40B1-AFC3-0698CE2D996D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="7" xr2:uid="{F9B4CAA5-DB4A-40B1-AFC3-0698CE2D996D}"/>
   </bookViews>
   <sheets>
     <sheet name="H1" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B9EFC1-6E7D-4B0C-A37D-1679B5871AF4}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
+    <sheetView zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D10195F-0F15-4EA4-9521-A3A0EA77D7A0}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="241" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="241" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,34 +917,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-1730</v>
+        <v>-2190</v>
       </c>
       <c r="B2">
-        <v>860</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-2190</v>
+        <v>-1730</v>
       </c>
       <c r="B3">
-        <v>860</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-2190</v>
+        <v>-1730</v>
       </c>
       <c r="B4">
-        <v>-30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-1730</v>
+        <v>-2190</v>
       </c>
       <c r="B5">
-        <v>-30</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TownRectangles.xlsx
+++ b/Data/TownRectangles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cardinalnewmanac-my.sharepoint.com/personal/t0078915_cardinalnewman_ac_uk/Documents/Computer Science/NEA/Game1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{3FDE97B2-A335-4DCF-9984-4E3563CE4361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D0AEE6B-1F3E-4F87-A411-46965E123C4A}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{3FDE97B2-A335-4DCF-9984-4E3563CE4361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21D6DCB1-7396-41D6-A19A-0BB82E3BB42F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="7" xr2:uid="{F9B4CAA5-DB4A-40B1-AFC3-0698CE2D996D}"/>
   </bookViews>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD4FA1B-61B5-495F-BDE4-C41407C44A1F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="390" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -902,7 +902,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="241" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,7 +936,7 @@
         <v>-1730</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>860</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -944,7 +944,7 @@
         <v>-2190</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>860</v>
       </c>
     </row>
   </sheetData>
@@ -956,7 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DA14AC-6501-4288-9DED-7CC1148C7C93}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="256" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
